--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="146">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-trialuse</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-13T14:50:01+02:00</t>
+    <t>2023-11-16T14:46:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -411,6 +412,30 @@
     <t>Chlamydia trachomatis [Presence] in Anorectal by Organism specific culture</t>
   </si>
   <si>
+    <t>85827-4</t>
+  </si>
+  <si>
+    <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
+  </si>
+  <si>
+    <t>101552-8</t>
+  </si>
+  <si>
+    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100343-3</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Saliva (oral fluid) by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94500-6</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -418,6 +443,15 @@
   </si>
   <si>
     <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>72904005</t>
+  </si>
+  <si>
+    <t>Treponema pallidum (organism)</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -686,7 +720,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1117,15 +1151,96 @@
         <v>132</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="238">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,12 +106,90 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>100911-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>101423-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101424-0</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101552-8</t>
+  </si>
+  <si>
+    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101554-4</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101555-1</t>
+  </si>
+  <si>
+    <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>103168-1</t>
+  </si>
+  <si>
+    <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
+  </si>
+  <si>
     <t>14127-5</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae [Presence] in Anal by Organism specific culture</t>
   </si>
   <si>
+    <t>14463-4</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Cervix by Organism specific culture</t>
+  </si>
+  <si>
+    <t>14464-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Vaginal fluid by Organism specific culture</t>
+  </si>
+  <si>
+    <t>14465-9</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Urethra by Organism specific culture</t>
+  </si>
+  <si>
+    <t>16600-9</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
+  </si>
+  <si>
+    <t>21190-4</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Cervix by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21191-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
+  </si>
+  <si>
     <t>21415-5</t>
   </si>
   <si>
@@ -124,48 +202,198 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>21613-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>23838-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
+  </si>
+  <si>
     <t>24111-7</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>31777-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31859-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31864-2</t>
+  </si>
+  <si>
+    <t>Influenza virus B Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
   </si>
   <si>
+    <t>34487-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>38382-8</t>
+  </si>
+  <si>
+    <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>40982-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>42931-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>43304-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>43305-2</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae rRNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>45084-1</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>45090-8</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Anal by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>45093-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Anal by Organism specific culture</t>
+  </si>
+  <si>
+    <t>45095-7</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Genital specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>47387-6</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae DNA [Presence] in Genital specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>48310-7</t>
+  </si>
+  <si>
+    <t>Influenza virus A [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>49521-8</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49524-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49614-1</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>4992-4</t>
+  </si>
+  <si>
+    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>50387-0</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Cervix by NAA with probe detection</t>
+  </si>
+  <si>
     <t>50388-8</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae rRNA [Presence] in Cervix by NAA with probe detection</t>
   </si>
   <si>
+    <t>51578-3</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Semen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>53879-3</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae rRNA [Presence] in Vaginal fluid by NAA with probe detection</t>
   </si>
   <si>
+    <t>53925-4</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Urethra by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>53926-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Vaginal fluid by NAA with probe detection</t>
+  </si>
+  <si>
     <t>53927-0</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urethra by NAA with probe detection</t>
   </si>
   <si>
+    <t>55465-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>57287-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Anal by NAA with probe detection</t>
+  </si>
+  <si>
     <t>57458-2</t>
   </si>
   <si>
@@ -184,6 +412,48 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>61368-7</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>6329-7</t>
+  </si>
+  <si>
+    <t>Campylobacter coli rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>6333-9</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>6334-7</t>
+  </si>
+  <si>
+    <t>Campylobacter lari rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>6349-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6356-0</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Genital specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>6357-8</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
     <t>688-2</t>
   </si>
   <si>
@@ -226,18 +496,108 @@
     <t>Neisseria gonorrhoeae [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>71429-5</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>74785-7</t>
+  </si>
+  <si>
+    <t>Influenza virus B Victoria lineage RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>74786-5</t>
+  </si>
+  <si>
+    <t>Influenza virus B Yamagata lineage RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>76078-5</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>76080-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>77026-3</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>77027-1</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>77028-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>80363-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Anorectal by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>80364-3</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Anorectal by NAA with probe detection</t>
+  </si>
+  <si>
     <t>80366-8</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae rRNA [Presence] in Anorectal by NAA with probe detection</t>
   </si>
   <si>
+    <t>80367-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Anorectal by Organism specific culture</t>
+  </si>
+  <si>
     <t>80368-4</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae [Presence] in Anorectal by Organism specific culture</t>
   </si>
   <si>
+    <t>81656-1</t>
+  </si>
+  <si>
+    <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>85477-8</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>85478-6</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>85827-4</t>
+  </si>
+  <si>
+    <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
+  </si>
+  <si>
     <t>88224-1</t>
   </si>
   <si>
@@ -250,190 +610,106 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Throat by NAA with probe detection</t>
   </si>
   <si>
+    <t>88592-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>88599-6</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92141-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92142-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92808-5</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92809-3</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94309-2</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94394-4</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94395-1</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94396-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94500-6</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94759-8</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94845-5</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Saliva (oral fluid) by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>95406-5</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Nose by NAA with probe detection</t>
+  </si>
+  <si>
     <t>96599-6</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae DNA [Presence] in Cervix by NAA with probe detection</t>
   </si>
   <si>
-    <t>14463-4</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Cervix by Organism specific culture</t>
-  </si>
-  <si>
-    <t>14464-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Vaginal fluid by Organism specific culture</t>
-  </si>
-  <si>
-    <t>14465-9</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Urethra by Organism specific culture</t>
-  </si>
-  <si>
-    <t>16600-9</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by probe</t>
-  </si>
-  <si>
-    <t>21190-4</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Cervix by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21191-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21613-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>23838-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by probe</t>
-  </si>
-  <si>
-    <t>31777-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>42931-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Urine by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>43304-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>45084-1</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>45090-8</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Anal by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>45093-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Anal by Organism specific culture</t>
-  </si>
-  <si>
-    <t>45095-7</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Genital specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>50387-0</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Cervix by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>51578-3</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Semen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>53925-4</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Urethra by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>53926-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Vaginal fluid by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>57287-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Anal by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>6349-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>6356-0</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Genital specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>6357-8</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Urine by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>80363-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Anorectal by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>80364-3</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Anorectal by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>80367-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Anorectal by Organism specific culture</t>
-  </si>
-  <si>
-    <t>85827-4</t>
-  </si>
-  <si>
-    <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
-  </si>
-  <si>
-    <t>101552-8</t>
-  </si>
-  <si>
-    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>100343-3</t>
-  </si>
-  <si>
-    <t>Influenza virus B RNA [Presence] in Saliva (oral fluid) by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>94500-6</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Respiratory specimen by NAA with probe detection</t>
+    <t>96797-6</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Oropharyngeal wash by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>97513-6</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
     <t/>
@@ -720,7 +996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1183,15 +1459,383 @@
         <v>140</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1221,26 +1865,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>145</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -8,13 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOWMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="334">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -106,12 +106,36 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>100383-9</t>
+  </si>
+  <si>
+    <t>Monkeypox virus DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100749-1</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila serogroup 1 [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>100911-7</t>
   </si>
   <si>
     <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
   </si>
   <si>
+    <t>101219-4</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101307-7</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax+ovale DNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
     <t>101423-2</t>
   </si>
   <si>
@@ -124,6 +148,12 @@
     <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>101427-3</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>101552-8</t>
   </si>
   <si>
@@ -148,6 +178,24 @@
     <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
   </si>
   <si>
+    <t>11259-9</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>13952-7</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>13954-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
     <t>14127-5</t>
   </si>
   <si>
@@ -178,6 +226,12 @@
     <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
   </si>
   <si>
+    <t>17057-1</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>21190-4</t>
   </si>
   <si>
@@ -190,6 +244,12 @@
     <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
   </si>
   <si>
+    <t>21363-7</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>21415-5</t>
   </si>
   <si>
@@ -220,12 +280,42 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>24113-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>26621-3</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>29610-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>31204-1</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>31777-6</t>
   </si>
   <si>
     <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31844-4</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Serum</t>
+  </si>
+  <si>
     <t>31859-2</t>
   </si>
   <si>
@@ -238,12 +328,36 @@
     <t>Influenza virus B Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31868-3</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila 1 Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>31869-1</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila Ag [Presence] in Sputum</t>
+  </si>
+  <si>
+    <t>31870-9</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila Ag [Presence] in Urine</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
   </si>
   <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
     <t>34487-9</t>
   </si>
   <si>
@@ -256,12 +370,48 @@
     <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>38394-3</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Urine by Organism specific culture</t>
+  </si>
+  <si>
+    <t>39007-0</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>40982-1</t>
   </si>
   <si>
     <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>41447-4</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41448-2</t>
+  </si>
+  <si>
+    <t>Plasmodium malariae DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41449-0</t>
+  </si>
+  <si>
+    <t>Plasmodium ovale DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41450-8</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>42931-6</t>
   </si>
   <si>
@@ -304,6 +454,24 @@
     <t>Chlamydia trachomatis [Presence] in Genital specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46455-2</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>47085-6</t>
+  </si>
+  <si>
+    <t>Plasmodium sp DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>47387-6</t>
   </si>
   <si>
@@ -340,6 +508,30 @@
     <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
   </si>
   <si>
+    <t>5007-0</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>5009-6</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>5010-4</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>5012-0</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>50387-0</t>
   </si>
   <si>
@@ -352,12 +544,42 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Cervix by NAA with probe detection</t>
   </si>
   <si>
+    <t>50687-3</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Presence] in Blood</t>
+  </si>
+  <si>
     <t>51578-3</t>
   </si>
   <si>
     <t>Chlamydia trachomatis DNA [Presence] in Semen by NAA with probe detection</t>
   </si>
   <si>
+    <t>51587-4</t>
+  </si>
+  <si>
+    <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
+  </si>
+  <si>
+    <t>5195-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus surface Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>5196-1</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus surface Ag [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>5199-5</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus Ab [Presence] in Serum by Immunoblot</t>
+  </si>
+  <si>
     <t>53879-3</t>
   </si>
   <si>
@@ -400,6 +622,24 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Anal by NAA with probe detection</t>
   </si>
   <si>
+    <t>589-2</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Bronchial specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>590-0</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>593-4</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>60255-7</t>
   </si>
   <si>
@@ -496,6 +736,24 @@
     <t>Neisseria gonorrhoeae [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>70242-3</t>
+  </si>
+  <si>
+    <t>Shigella species+EIEC invasion plasmid antigen H ipaH gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>70568-1</t>
+  </si>
+  <si>
+    <t>Plasmodium knowlesi DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>70569-9</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Identifier] in Blood by Rapid immunoassay</t>
+  </si>
+  <si>
     <t>71429-5</t>
   </si>
   <si>
@@ -526,6 +784,12 @@
     <t>Influenza virus B RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>76772-3</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum Ag [Presence] in Blood by Rapid immunoassay</t>
+  </si>
+  <si>
     <t>77026-3</t>
   </si>
   <si>
@@ -544,6 +808,12 @@
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>79189-7</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus core Ag [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
     <t>80363-5</t>
   </si>
   <si>
@@ -580,6 +850,12 @@
     <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>82300-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Stool by Culture</t>
+  </si>
+  <si>
     <t>85477-8</t>
   </si>
   <si>
@@ -610,6 +886,12 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Throat by NAA with probe detection</t>
   </si>
   <si>
+    <t>88590-5</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila DNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88592-1</t>
   </si>
   <si>
@@ -632,6 +914,12 @@
   </si>
   <si>
     <t>Influenza virus A RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92145-2</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila DNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>92808-5</t>
@@ -996,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1827,15 +2115,399 @@
         <v>232</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1865,26 +2537,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>236</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>232</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>237</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,6 +106,12 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>46732-4</t>
+  </si>
+  <si>
+    <t>Francisella tularensis subtype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>100383-9</t>
   </si>
   <si>
@@ -124,6 +130,12 @@
     <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
   </si>
   <si>
+    <t>100965-3</t>
+  </si>
+  <si>
+    <t>Dengue virus IgG Ab [Interpretation] in Serum, Plasma or Blood</t>
+  </si>
+  <si>
     <t>101219-4</t>
   </si>
   <si>
@@ -136,6 +148,18 @@
     <t>Plasmodium vivax+ovale DNA [Presence] in Blood by NAA with non-probe detection</t>
   </si>
   <si>
+    <t>101364-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>101373-9</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Sputum by NAA with non-probe detection</t>
+  </si>
+  <si>
     <t>101423-2</t>
   </si>
   <si>
@@ -178,18 +202,48 @@
     <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
   </si>
   <si>
+    <t>104371-0</t>
+  </si>
+  <si>
+    <t>Corynebacterium pseudotuberculosis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104372-8</t>
+  </si>
+  <si>
+    <t>Corynebacterium pseudotuberculosis [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104373-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104374-4</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104375-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>11259-9</t>
   </si>
   <si>
     <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
-    <t>13952-7</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus core Ab [Presence] in Serum or Plasma by Immunoassay</t>
-  </si>
-  <si>
     <t>13954-3</t>
   </si>
   <si>
@@ -202,6 +256,12 @@
     <t>Neisseria gonorrhoeae [Presence] in Anal by Organism specific culture</t>
   </si>
   <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
     <t>14463-4</t>
   </si>
   <si>
@@ -220,16 +280,28 @@
     <t>Chlamydia trachomatis [Presence] in Urethra by Organism specific culture</t>
   </si>
   <si>
+    <t>16134-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>16600-9</t>
   </si>
   <si>
     <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
   </si>
   <si>
-    <t>17057-1</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila Ag [Presence] in Specimen</t>
+    <t>16676-9</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>20489-1</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
     <t>21190-4</t>
@@ -262,18 +334,48 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>21503-8</t>
+  </si>
+  <si>
+    <t>Measles virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>21613-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>22502-9</t>
+  </si>
+  <si>
+    <t>Measles virus IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>23126-6</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Tissue by Immune stain</t>
+  </si>
+  <si>
+    <t>23130-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Tissue by NAA with probe detection</t>
+  </si>
+  <si>
     <t>23838-6</t>
   </si>
   <si>
     <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
   </si>
   <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
     <t>24111-7</t>
   </si>
   <si>
@@ -286,10 +388,10 @@
     <t>Hepatitis B virus core IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
   </si>
   <si>
-    <t>26621-3</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Specimen</t>
+    <t>25338-5</t>
+  </si>
+  <si>
+    <t>Dengue virus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
     <t>29610-3</t>
@@ -298,6 +400,12 @@
     <t>Hepatitis B virus DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
+    <t>29907-3</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae B DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>31204-1</t>
   </si>
   <si>
@@ -310,6 +418,30 @@
     <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31798-2</t>
+  </si>
+  <si>
+    <t>Dengue virus Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31799-0</t>
+  </si>
+  <si>
+    <t>Dengue virus Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31828-7</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31829-5</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>31844-4</t>
   </si>
   <si>
@@ -334,18 +466,54 @@
     <t>Legionella pneumophila 1 Ag [Presence] in Urine</t>
   </si>
   <si>
-    <t>31869-1</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila Ag [Presence] in Sputum</t>
-  </si>
-  <si>
     <t>31870-9</t>
   </si>
   <si>
     <t>Legionella pneumophila Ag [Presence] in Urine</t>
   </si>
   <si>
+    <t>31879-0</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Nose</t>
+  </si>
+  <si>
+    <t>31881-6</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>31883-2</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Sputum</t>
+  </si>
+  <si>
+    <t>31884-0</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Throat</t>
+  </si>
+  <si>
+    <t>31887-3</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31912-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31969-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
@@ -358,24 +526,36 @@
     <t>Legionella sp Ag [Presence] in Urine</t>
   </si>
   <si>
+    <t>33676-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>33679-2</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>34487-9</t>
   </si>
   <si>
     <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>38382-8</t>
   </si>
   <si>
     <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
-    <t>38394-3</t>
-  </si>
-  <si>
-    <t>Legionella sp identified in Urine by Organism specific culture</t>
-  </si>
-  <si>
     <t>39007-0</t>
   </si>
   <si>
@@ -430,6 +610,18 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>44012-3</t>
+  </si>
+  <si>
+    <t>Measles virus IgG and IgM [Interpretation] in Serum</t>
+  </si>
+  <si>
     <t>45084-1</t>
   </si>
   <si>
@@ -484,6 +676,12 @@
     <t>Influenza virus A [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>48508-6</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>49521-8</t>
   </si>
   <si>
@@ -496,12 +694,30 @@
     <t>Influenza virus A H3 RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49609-1</t>
+  </si>
+  <si>
+    <t>Vibrio sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>49614-1</t>
   </si>
   <si>
     <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49671-1</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49672-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>4992-4</t>
   </si>
   <si>
@@ -580,12 +796,24 @@
     <t>Hepatitis C virus Ab [Presence] in Serum by Immunoblot</t>
   </si>
   <si>
+    <t>53607-8</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae B DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>53879-3</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae rRNA [Presence] in Vaginal fluid by NAA with probe detection</t>
   </si>
   <si>
+    <t>53917-1</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>53925-4</t>
   </si>
   <si>
@@ -604,6 +832,18 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urethra by NAA with probe detection</t>
   </si>
   <si>
+    <t>53941-1</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae toxin Ag [Presence] in Isolate</t>
+  </si>
+  <si>
+    <t>53942-9</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae toxin ctx gene [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>55465-9</t>
   </si>
   <si>
@@ -622,6 +862,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Anal by NAA with probe detection</t>
   </si>
   <si>
+    <t>58473-0</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae serotype DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>589-2</t>
   </si>
   <si>
@@ -652,12 +898,30 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>60422-3</t>
+  </si>
+  <si>
+    <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>61366-1</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>61368-7</t>
   </si>
   <si>
     <t>Campylobacter jejuni DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>61371-1</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>6329-7</t>
   </si>
   <si>
@@ -694,6 +958,60 @@
     <t>Chlamydia trachomatis DNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>6387-5</t>
+  </si>
+  <si>
+    <t>Dengue virus DNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>6508-6</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis Ag [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>6578-9</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Blood by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6579-7</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6581-3</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6584-7</t>
+  </si>
+  <si>
+    <t>Virus identified in Specimen by Culture</t>
+  </si>
+  <si>
+    <t>6600-1</t>
+  </si>
+  <si>
+    <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>67561-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>6811-4</t>
+  </si>
+  <si>
+    <t>Dengue virus IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
     <t>688-2</t>
   </si>
   <si>
@@ -718,6 +1036,18 @@
     <t>Neisseria gonorrhoeae [Presence] in Semen by Organism specific culture</t>
   </si>
   <si>
+    <t>69410-9</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae [Identifier] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>69577-5</t>
+  </si>
+  <si>
+    <t>Hepatitis E virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>696-5</t>
   </si>
   <si>
@@ -784,6 +1114,12 @@
     <t>Influenza virus B RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>76626-1</t>
+  </si>
+  <si>
+    <t>Measles virus [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>76772-3</t>
   </si>
   <si>
@@ -808,12 +1144,30 @@
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>7889-9</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>7890-7</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>79189-7</t>
   </si>
   <si>
     <t>Hepatitis C virus core Ag [Presence] in Serum or Plasma by Immunoassay</t>
   </si>
   <si>
+    <t>7964-0</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Nose by NAA with probe detection</t>
+  </si>
+  <si>
     <t>80363-5</t>
   </si>
   <si>
@@ -844,6 +1198,12 @@
     <t>Neisseria gonorrhoeae [Presence] in Anorectal by Organism specific culture</t>
   </si>
   <si>
+    <t>80680-2</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae toxin ctxA gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>81656-1</t>
   </si>
   <si>
@@ -874,6 +1234,18 @@
     <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
   </si>
   <si>
+    <t>86576-6</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>86581-6</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Cerebral spinal fluid by Organism specific culture</t>
+  </si>
+  <si>
     <t>88224-1</t>
   </si>
   <si>
@@ -886,6 +1258,24 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Throat by NAA with probe detection</t>
   </si>
   <si>
+    <t>88584-8</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>88585-5</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Lower respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>88588-9</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Identifier] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88590-5</t>
   </si>
   <si>
@@ -904,6 +1294,42 @@
     <t>Influenza virus A RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>90066-2</t>
+  </si>
+  <si>
+    <t>Corynebacterium sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>91071-1</t>
+  </si>
+  <si>
+    <t>Hepatitis E virus RNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>91077-8</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>91132-1</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>91780-7</t>
+  </si>
+  <si>
+    <t>Measles virus [Presence] in Lower respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>91786-4</t>
+  </si>
+  <si>
+    <t>Measles virus [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>92141-1</t>
   </si>
   <si>
@@ -922,6 +1348,18 @@
     <t>Legionella pneumophila DNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>92771-5</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>92786-3</t>
+  </si>
+  <si>
+    <t>Corynebacterium sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
     <t>92808-5</t>
   </si>
   <si>
@@ -934,6 +1372,36 @@
     <t>Influenza virus A H1 RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>93388-7</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>93397-8</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>93716-9</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgM Ab [Presence] in Serum by Immunoassay</t>
+  </si>
+  <si>
+    <t>93717-7</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgG Ab [Presence] in Serum by Immunoassay</t>
+  </si>
+  <si>
+    <t>93718-5</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgG and IgM [Interpretation] in Serum</t>
+  </si>
+  <si>
     <t>94309-2</t>
   </si>
   <si>
@@ -976,6 +1444,12 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Saliva (oral fluid) by NAA with probe detection</t>
   </si>
   <si>
+    <t>95156-6</t>
+  </si>
+  <si>
+    <t>Hepatitis E virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>95406-5</t>
   </si>
   <si>
@@ -994,10 +1468,40 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Oropharyngeal wash by NAA with probe detection</t>
   </si>
   <si>
+    <t>97314-9</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>97513-6</t>
   </si>
   <si>
     <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>97621-7</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] in Synovial fluid by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>99090-3</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] in Cerebral spinal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>99092-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis DNA [Presence] in Cerebral spinal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>99094-5</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] in Cerebral spinal fluid by NAA with probe detection</t>
   </si>
   <si>
     <t/>
@@ -1284,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2499,15 +3003,687 @@
         <v>328</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -2537,26 +3713,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>331</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>332</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>328</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>328</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>329</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>333</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,558 +106,618 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>100383-9</t>
+  </si>
+  <si>
+    <t>Monkeypox virus DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100749-1</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila serogroup 1 [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100888-7</t>
+  </si>
+  <si>
+    <t>Monkeypox virus clade II DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100889-5</t>
+  </si>
+  <si>
+    <t>Monkeypox virus clade I DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100911-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>100965-3</t>
+  </si>
+  <si>
+    <t>Dengue virus IgG Ab [Interpretation] in Serum, Plasma or Blood</t>
+  </si>
+  <si>
+    <t>101219-4</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101307-7</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax+ovale DNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>101364-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>101373-9</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Sputum by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>101423-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101424-0</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101427-3</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101552-8</t>
+  </si>
+  <si>
+    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101554-4</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101555-1</t>
+  </si>
+  <si>
+    <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>103168-1</t>
+  </si>
+  <si>
+    <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104371-0</t>
+  </si>
+  <si>
+    <t>Corynebacterium pseudotuberculosis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104372-8</t>
+  </si>
+  <si>
+    <t>Corynebacterium pseudotuberculosis [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104373-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104374-4</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104375-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104395-9</t>
+  </si>
+  <si>
+    <t>European tick borne encephalitis virus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
+  </si>
+  <si>
+    <t>11259-9</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>13954-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>14127-5</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae [Presence] in Anal by Organism specific culture</t>
+  </si>
+  <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
+    <t>14463-4</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Cervix by Organism specific culture</t>
+  </si>
+  <si>
+    <t>14464-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Vaginal fluid by Organism specific culture</t>
+  </si>
+  <si>
+    <t>14465-9</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Urethra by Organism specific culture</t>
+  </si>
+  <si>
+    <t>16134-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>16600-9</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
+  </si>
+  <si>
+    <t>16676-9</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>17552-1</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>20458-6</t>
+  </si>
+  <si>
+    <t>Rubella virus IgG Ab [Interpretation] in Serum</t>
+  </si>
+  <si>
+    <t>20489-1</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>21190-4</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Cervix by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21191-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21363-7</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21415-5</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae DNA [Presence] in Urethra by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21416-3</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae DNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21503-8</t>
+  </si>
+  <si>
+    <t>Measles virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>21613-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>22314-9</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>22502-9</t>
+  </si>
+  <si>
+    <t>Measles virus IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>23126-6</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Tissue by Immune stain</t>
+  </si>
+  <si>
+    <t>23130-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Tissue by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>23838-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
+  </si>
+  <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
+    <t>24111-7</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>24113-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>24116-6</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>25338-5</t>
+  </si>
+  <si>
+    <t>Dengue virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>29610-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>29907-3</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae B DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>31204-1</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31616-6</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31777-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31798-2</t>
+  </si>
+  <si>
+    <t>Dengue virus Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31799-0</t>
+  </si>
+  <si>
+    <t>Dengue virus Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31828-7</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31829-5</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31844-4</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31859-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31864-2</t>
+  </si>
+  <si>
+    <t>Influenza virus B Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31868-3</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila 1 Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>31870-9</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>31879-0</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Nose</t>
+  </si>
+  <si>
+    <t>31881-6</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>31883-2</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Sputum</t>
+  </si>
+  <si>
+    <t>31884-0</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Throat</t>
+  </si>
+  <si>
+    <t>31887-3</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31912-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31969-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>32705-6</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>33676-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>33679-2</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>34487-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>38382-8</t>
+  </si>
+  <si>
+    <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>39007-0</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>40669-4</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Cerebral spinal fluid by Immunoassay</t>
+  </si>
+  <si>
+    <t>40982-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41447-4</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41448-2</t>
+  </si>
+  <si>
+    <t>Plasmodium malariae DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41449-0</t>
+  </si>
+  <si>
+    <t>Plasmodium ovale DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41450-8</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41763-4</t>
+  </si>
+  <si>
+    <t>Rubella virus IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>42931-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>43304-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>43305-2</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae rRNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>44012-3</t>
+  </si>
+  <si>
+    <t>Measles virus IgG and IgM [Interpretation] in Serum</t>
+  </si>
+  <si>
+    <t>45084-1</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>45090-8</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Anal by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>45093-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Anal by Organism specific culture</t>
+  </si>
+  <si>
+    <t>45095-7</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Genital specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46455-2</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>46732-4</t>
   </si>
   <si>
     <t>Francisella tularensis subtype [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>100383-9</t>
-  </si>
-  <si>
-    <t>Monkeypox virus DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>100749-1</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila serogroup 1 [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>100911-7</t>
-  </si>
-  <si>
-    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
-  </si>
-  <si>
-    <t>100965-3</t>
-  </si>
-  <si>
-    <t>Dengue virus IgG Ab [Interpretation] in Serum, Plasma or Blood</t>
-  </si>
-  <si>
-    <t>101219-4</t>
-  </si>
-  <si>
-    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101307-7</t>
-  </si>
-  <si>
-    <t>Plasmodium vivax+ovale DNA [Presence] in Blood by NAA with non-probe detection</t>
-  </si>
-  <si>
-    <t>101364-8</t>
-  </si>
-  <si>
-    <t>Francisella tularensis DNA [Presence] in Blood by NAA with non-probe detection</t>
-  </si>
-  <si>
-    <t>101373-9</t>
-  </si>
-  <si>
-    <t>Francisella tularensis DNA [Presence] in Sputum by NAA with non-probe detection</t>
-  </si>
-  <si>
-    <t>101423-2</t>
-  </si>
-  <si>
-    <t>Influenza virus A H1 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101424-0</t>
-  </si>
-  <si>
-    <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101427-3</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101552-8</t>
-  </si>
-  <si>
-    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101554-4</t>
-  </si>
-  <si>
-    <t>Campylobacter jejuni DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101555-1</t>
-  </si>
-  <si>
-    <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>103168-1</t>
-  </si>
-  <si>
-    <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>104371-0</t>
-  </si>
-  <si>
-    <t>Corynebacterium pseudotuberculosis [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>104372-8</t>
-  </si>
-  <si>
-    <t>Corynebacterium pseudotuberculosis [Presence] in Upper respiratory specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>104373-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium ulcerans [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>104374-4</t>
-  </si>
-  <si>
-    <t>Corynebacterium ulcerans [Presence] in Upper respiratory specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>104375-1</t>
-  </si>
-  <si>
-    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>104376-9</t>
-  </si>
-  <si>
-    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>11259-9</t>
-  </si>
-  <si>
-    <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>13954-3</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus e Ag [Presence] in Serum or Plasma by Immunoassay</t>
-  </si>
-  <si>
-    <t>14127-5</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae [Presence] in Anal by Organism specific culture</t>
-  </si>
-  <si>
-    <t>14357-8</t>
-  </si>
-  <si>
-    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
-  </si>
-  <si>
-    <t>14463-4</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Cervix by Organism specific culture</t>
-  </si>
-  <si>
-    <t>14464-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Vaginal fluid by Organism specific culture</t>
-  </si>
-  <si>
-    <t>14465-9</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Urethra by Organism specific culture</t>
-  </si>
-  <si>
-    <t>16134-9</t>
-  </si>
-  <si>
-    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>16600-9</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
-  </si>
-  <si>
-    <t>16676-9</t>
-  </si>
-  <si>
-    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>20489-1</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae Ag [Presence] in Cerebral spinal fluid</t>
-  </si>
-  <si>
-    <t>21190-4</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Cervix by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21191-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21363-7</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21415-5</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae DNA [Presence] in Urethra by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21416-3</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae DNA [Presence] in Urine by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21503-8</t>
-  </si>
-  <si>
-    <t>Measles virus IgM Ab [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>21613-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>22502-9</t>
-  </si>
-  <si>
-    <t>Measles virus IgG Ab [Titer] in Serum</t>
-  </si>
-  <si>
-    <t>23126-6</t>
-  </si>
-  <si>
-    <t>Francisella tularensis Ag [Presence] in Tissue by Immune stain</t>
-  </si>
-  <si>
-    <t>23130-8</t>
-  </si>
-  <si>
-    <t>Francisella tularensis DNA [Presence] in Tissue by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>23838-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
-  </si>
-  <si>
-    <t>24102-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
-  </si>
-  <si>
-    <t>24111-7</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>24113-3</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus core IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
-  </si>
-  <si>
-    <t>25338-5</t>
-  </si>
-  <si>
-    <t>Dengue virus IgM Ab [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>29610-3</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>29907-3</t>
-  </si>
-  <si>
-    <t>Haemophilus influenzae B DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>31204-1</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus core IgM Ab [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>31777-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31798-2</t>
-  </si>
-  <si>
-    <t>Dengue virus Ag [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>31799-0</t>
-  </si>
-  <si>
-    <t>Dengue virus Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31828-7</t>
-  </si>
-  <si>
-    <t>Francisella tularensis Ag [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>31829-5</t>
-  </si>
-  <si>
-    <t>Francisella tularensis Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31844-4</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus e Ag [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>31859-2</t>
-  </si>
-  <si>
-    <t>Influenza virus A Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31864-2</t>
-  </si>
-  <si>
-    <t>Influenza virus B Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31868-3</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila 1 Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>31870-9</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>31879-0</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Nose</t>
-  </si>
-  <si>
-    <t>31881-6</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Serum or Plasma</t>
-  </si>
-  <si>
-    <t>31883-2</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Sputum</t>
-  </si>
-  <si>
-    <t>31884-0</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Throat</t>
-  </si>
-  <si>
-    <t>31887-3</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31912-9</t>
-  </si>
-  <si>
-    <t>Neisseria meningitidis Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31969-9</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>32705-6</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>32781-7</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>33676-8</t>
-  </si>
-  <si>
-    <t>Francisella tularensis [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>33679-2</t>
-  </si>
-  <si>
-    <t>Francisella tularensis DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>34487-9</t>
-  </si>
-  <si>
-    <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>38353-9</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>38382-8</t>
-  </si>
-  <si>
-    <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>39007-0</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus e Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>40982-1</t>
-  </si>
-  <si>
-    <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>41447-4</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum DNA [Presence] in Blood by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>41448-2</t>
-  </si>
-  <si>
-    <t>Plasmodium malariae DNA [Presence] in Blood by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>41449-0</t>
-  </si>
-  <si>
-    <t>Plasmodium ovale DNA [Presence] in Blood by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>41450-8</t>
-  </si>
-  <si>
-    <t>Plasmodium vivax DNA [Presence] in Blood by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>42931-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Urine by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>43304-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>43305-2</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae rRNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>43389-6</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
-  </si>
-  <si>
-    <t>44012-3</t>
-  </si>
-  <si>
-    <t>Measles virus IgG and IgM [Interpretation] in Serum</t>
-  </si>
-  <si>
-    <t>45084-1</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>45090-8</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Anal by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>45093-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Anal by Organism specific culture</t>
-  </si>
-  <si>
-    <t>45095-7</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Genital specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46454-5</t>
-  </si>
-  <si>
-    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46455-2</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>47085-6</t>
   </si>
   <si>
@@ -778,6 +838,12 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>51664-1</t>
+  </si>
+  <si>
+    <t>Chikungunya virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>5195-3</t>
   </si>
   <si>
@@ -844,12 +910,30 @@
     <t>Vibrio cholerae toxin ctx gene [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>54091-4</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>55465-9</t>
   </si>
   <si>
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>56129-0</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgG Ab [Presence] in Serum or Plasma by Immunofluorescence</t>
+  </si>
+  <si>
+    <t>56131-6</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunofluorescence</t>
+  </si>
+  <si>
     <t>57287-5</t>
   </si>
   <si>
@@ -862,6 +946,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Anal by NAA with probe detection</t>
   </si>
   <si>
+    <t>57934-2</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
     <t>58473-0</t>
   </si>
   <si>
@@ -898,6 +988,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>60274-8</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
     <t>60422-3</t>
   </si>
   <si>
@@ -916,6 +1012,12 @@
     <t>Campylobacter jejuni DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>61369-5</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>61371-1</t>
   </si>
   <si>
@@ -970,6 +1072,12 @@
     <t>Neisseria meningitidis Ag [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
+    <t>6548-2</t>
+  </si>
+  <si>
+    <t>Rubella virus identified in Serum by Organism specific culture</t>
+  </si>
+  <si>
     <t>6578-9</t>
   </si>
   <si>
@@ -1000,6 +1108,12 @@
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>6609-2</t>
+  </si>
+  <si>
+    <t>Listeria sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>67561-1</t>
   </si>
   <si>
@@ -1060,6 +1174,12 @@
     <t>Neisseria gonorrhoeae [Presence] in Urethra by Organism specific culture</t>
   </si>
   <si>
+    <t>69765-6</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Body fluid by Immunoassay</t>
+  </si>
+  <si>
     <t>698-1</t>
   </si>
   <si>
@@ -1156,6 +1276,12 @@
     <t>Francisella tularensis IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>7904-6</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
     <t>79189-7</t>
   </si>
   <si>
@@ -1210,6 +1336,12 @@
     <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>82184-3</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes DNA [Presence] in Cerebral spinal fluid by NAA with non-probe detection</t>
+  </si>
+  <si>
     <t>82300-5</t>
   </si>
   <si>
@@ -1234,6 +1366,12 @@
     <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
   </si>
   <si>
+    <t>86515-4</t>
+  </si>
+  <si>
+    <t>Chikungunya virus RNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
     <t>86576-6</t>
   </si>
   <si>
@@ -1246,6 +1384,12 @@
     <t>Neisseria meningitidis [Presence] in Cerebral spinal fluid by Organism specific culture</t>
   </si>
   <si>
+    <t>86589-9</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88224-1</t>
   </si>
   <si>
@@ -1294,6 +1438,18 @@
     <t>Influenza virus A RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>88629-1</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>89596-1</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>90066-2</t>
   </si>
   <si>
@@ -1330,6 +1486,18 @@
     <t>Measles virus [Presence] in Upper respiratory specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>91792-2</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>91823-5</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>92141-1</t>
   </si>
   <si>
@@ -1402,6 +1570,12 @@
     <t>Francisella tularensis IgG and IgM [Interpretation] in Serum</t>
   </si>
   <si>
+    <t>93979-3</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgG Ab [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
     <t>94309-2</t>
   </si>
   <si>
@@ -1456,6 +1630,24 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Nose by NAA with probe detection</t>
   </si>
   <si>
+    <t>95687-0</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgM Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
+    <t>96509-5</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus IgG Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
+    <t>96535-0</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus IgM Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
     <t>96599-6</t>
   </si>
   <si>
@@ -1480,10 +1672,22 @@
     <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>97523-5</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>97621-7</t>
   </si>
   <si>
     <t>Haemophilus influenzae DNA [Presence] in Synovial fluid by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>97920-3</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>99090-3</t>
@@ -1788,7 +1992,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B270"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3675,15 +3879,287 @@
         <v>496</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -3713,26 +4189,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>500</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>496</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>501</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="674">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,12 @@
     <t>Dengue virus IgG Ab [Interpretation] in Serum, Plasma or Blood</t>
   </si>
   <si>
+    <t>101003-2</t>
+  </si>
+  <si>
+    <t>Monkeypox virus clade [Type] in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>101219-4</t>
   </si>
   <si>
@@ -202,12 +208,36 @@
     <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>101662-5</t>
+  </si>
+  <si>
+    <t>Abnormal Prion Protein [Presence] in Cerebral spinal fluid by RT-QuIC</t>
+  </si>
+  <si>
+    <t>101802-7</t>
+  </si>
+  <si>
+    <t>Brucella sp IgA Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>103168-1</t>
   </si>
   <si>
     <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
   </si>
   <si>
+    <t>103717-5</t>
+  </si>
+  <si>
+    <t>Crimean-Congo hemorrhagic fever virus RNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>103719-1</t>
+  </si>
+  <si>
+    <t>Lassa virus RNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
     <t>104371-0</t>
   </si>
   <si>
@@ -250,6 +280,12 @@
     <t>European tick borne encephalitis virus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
   </si>
   <si>
+    <t>104476-7</t>
+  </si>
+  <si>
+    <t>Zika virus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
+  </si>
+  <si>
     <t>11259-9</t>
   </si>
   <si>
@@ -316,6 +352,12 @@
     <t>Rubella virus IgM Ab [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
+    <t>17563-8</t>
+  </si>
+  <si>
+    <t>Salmonella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>20458-6</t>
   </si>
   <si>
@@ -382,6 +424,18 @@
     <t>Measles virus IgG Ab [Titer] in Serum</t>
   </si>
   <si>
+    <t>22866-8</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis Ag [Presence] in Tissue by Immunofluorescence</t>
+  </si>
+  <si>
+    <t>22867-6</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis Ag [Presence] in Specimen by Immunofluorescence</t>
+  </si>
+  <si>
     <t>23126-6</t>
   </si>
   <si>
@@ -424,6 +478,18 @@
     <t>Rubella virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
   </si>
   <si>
+    <t>24396-4</t>
+  </si>
+  <si>
+    <t>Brucella sp IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>24397-2</t>
+  </si>
+  <si>
+    <t>Brucella sp IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>25338-5</t>
   </si>
   <si>
@@ -454,6 +520,12 @@
     <t>Rubella virus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>31726-3</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>31777-6</t>
   </si>
   <si>
@@ -556,6 +628,12 @@
     <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31989-7</t>
+  </si>
+  <si>
+    <t>14-3-3 Ag [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
@@ -580,12 +658,42 @@
     <t>Francisella tularensis DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>33685-9</t>
+  </si>
+  <si>
+    <t>Yersinia pestis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>33687-5</t>
+  </si>
+  <si>
+    <t>Yersinia pestis Ag [Presence] in Specimen by Immunofluorescence</t>
+  </si>
+  <si>
+    <t>33691-7</t>
+  </si>
+  <si>
+    <t>Yersinia pestis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>33696-6</t>
+  </si>
+  <si>
+    <t>Clostridium botulinum toxin [Presence] in Specimen by Mouse bioassay</t>
+  </si>
+  <si>
     <t>34487-9</t>
   </si>
   <si>
     <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>38275-4</t>
+  </si>
+  <si>
+    <t>Transmissible spongiform encephalopathy [Presence] in Brain by Light microscopy</t>
+  </si>
+  <si>
     <t>38353-9</t>
   </si>
   <si>
@@ -640,12 +748,54 @@
     <t>Plasmodium vivax DNA [Presence] in Blood by NAA with probe detection</t>
   </si>
   <si>
+    <t>41458-1</t>
+  </si>
+  <si>
+    <t>SARS coronavirus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41623-0</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41625-5</t>
+  </si>
+  <si>
+    <t>Brucella sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41626-3</t>
+  </si>
+  <si>
+    <t>Brucella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41636-2</t>
+  </si>
+  <si>
+    <t>Ebola virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41638-8</t>
+  </si>
+  <si>
+    <t>Marburg virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>41763-4</t>
   </si>
   <si>
     <t>Rubella virus IgG Ab [Titer] in Serum</t>
   </si>
   <si>
+    <t>41856-6</t>
+  </si>
+  <si>
+    <t>Variola virus DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>42931-6</t>
   </si>
   <si>
@@ -676,6 +826,12 @@
     <t>Measles virus IgG and IgM [Interpretation] in Serum</t>
   </si>
   <si>
+    <t>44797-9</t>
+  </si>
+  <si>
+    <t>Brucella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>45084-1</t>
   </si>
   <si>
@@ -754,10 +910,10 @@
     <t>Influenza virus A H3 RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>49609-1</t>
-  </si>
-  <si>
-    <t>Vibrio sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+    <t>49612-5</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>49614-1</t>
@@ -862,6 +1018,12 @@
     <t>Hepatitis C virus Ab [Presence] in Serum by Immunoblot</t>
   </si>
   <si>
+    <t>52986-7</t>
+  </si>
+  <si>
+    <t>Rubella virus IgG Ab avidity [Ratio] in Serum by Immunoassay</t>
+  </si>
+  <si>
     <t>53607-8</t>
   </si>
   <si>
@@ -916,6 +1078,12 @@
     <t>Rubella virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>552-0</t>
+  </si>
+  <si>
+    <t>Brucella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>55465-9</t>
   </si>
   <si>
@@ -934,6 +1102,12 @@
     <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunofluorescence</t>
   </si>
   <si>
+    <t>56475-7</t>
+  </si>
+  <si>
+    <t>Salmonella sp antigenic formula [Identifier] in Isolate by Agglutination</t>
+  </si>
+  <si>
     <t>57287-5</t>
   </si>
   <si>
@@ -1000,6 +1174,12 @@
     <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>60534-5</t>
+  </si>
+  <si>
+    <t>SARS coronavirus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
     <t>61366-1</t>
   </si>
   <si>
@@ -1078,6 +1258,12 @@
     <t>Rubella virus identified in Serum by Organism specific culture</t>
   </si>
   <si>
+    <t>65756-9</t>
+  </si>
+  <si>
+    <t>Salmonella sp serovar [Type] in Isolate</t>
+  </si>
+  <si>
     <t>6578-9</t>
   </si>
   <si>
@@ -1210,6 +1396,18 @@
     <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>72307-2</t>
+  </si>
+  <si>
+    <t>Brucella sp IgG Ab [Titer] in Serum --2nd specimen</t>
+  </si>
+  <si>
+    <t>74037-3</t>
+  </si>
+  <si>
+    <t>Transmissible spongiform encephalopathy [Identifier] in Brain by Light microscopy</t>
+  </si>
+  <si>
     <t>74785-7</t>
   </si>
   <si>
@@ -1222,6 +1420,12 @@
     <t>Influenza virus B Yamagata lineage RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>75756-7</t>
+  </si>
+  <si>
+    <t>Bacteria identified in Isolate by MS.MALDI-TOF</t>
+  </si>
+  <si>
     <t>76078-5</t>
   </si>
   <si>
@@ -1288,6 +1492,12 @@
     <t>Hepatitis C virus core Ag [Presence] in Serum or Plasma by Immunoassay</t>
   </si>
   <si>
+    <t>79190-5</t>
+  </si>
+  <si>
+    <t>Zika virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>7964-0</t>
   </si>
   <si>
@@ -1330,6 +1540,12 @@
     <t>Vibrio cholerae toxin ctxA gene [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>80824-6</t>
+  </si>
+  <si>
+    <t>Zika virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
     <t>81656-1</t>
   </si>
   <si>
@@ -1348,6 +1564,18 @@
     <t>Shigella sp [Presence] in Stool by Culture</t>
   </si>
   <si>
+    <t>82301-3</t>
+  </si>
+  <si>
+    <t>Salmonella sp [Presence] in Stool by Culture</t>
+  </si>
+  <si>
+    <t>82731-1</t>
+  </si>
+  <si>
+    <t>Zika virus IgM Ab [Presence] in Serum by Immunofluorescence</t>
+  </si>
+  <si>
     <t>85477-8</t>
   </si>
   <si>
@@ -1360,6 +1588,18 @@
     <t>Influenza virus B RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>85622-9</t>
+  </si>
+  <si>
+    <t>Zika virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>85623-7</t>
+  </si>
+  <si>
+    <t>Zika virus RNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
     <t>85827-4</t>
   </si>
   <si>
@@ -1372,6 +1612,18 @@
     <t>Chikungunya virus RNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>86518-8</t>
+  </si>
+  <si>
+    <t>Ebola virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>86574-1</t>
+  </si>
+  <si>
+    <t>Marburg virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>86576-6</t>
   </si>
   <si>
@@ -1390,6 +1642,24 @@
     <t>Rubella virus RNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>87622-7</t>
+  </si>
+  <si>
+    <t>Zika virus IgM Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
+    <t>88192-0</t>
+  </si>
+  <si>
+    <t>Crimean-Congo hemorrhagic fever virus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>88199-5</t>
+  </si>
+  <si>
+    <t>Middle East respiratory syndrome coronavirus (MERS-CoV) RNA [Presence] in Aspirate by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88224-1</t>
   </si>
   <si>
@@ -1468,6 +1738,12 @@
     <t>Measles virus RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>91078-6</t>
+  </si>
+  <si>
+    <t>Zika virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>91132-1</t>
   </si>
   <si>
@@ -1492,12 +1768,24 @@
     <t>Rubella virus RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>91807-8</t>
+  </si>
+  <si>
+    <t>Middle East respiratory syndrome coronavirus (MERS-CoV) RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>91823-5</t>
   </si>
   <si>
     <t>Rubella virus RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>91830-0</t>
+  </si>
+  <si>
+    <t>Middle East respiratory syndrome coronavirus (MERS-CoV) RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>92141-1</t>
   </si>
   <si>
@@ -1540,6 +1828,12 @@
     <t>Influenza virus A H1 RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>93385-3</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
     <t>93388-7</t>
   </si>
   <si>
@@ -1606,6 +1900,12 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>94501-4</t>
+  </si>
+  <si>
+    <t>Middle East respiratory syndrome coronavirus (MERS-CoV) RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>94759-8</t>
   </si>
   <si>
@@ -1660,6 +1960,12 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Oropharyngeal wash by NAA with probe detection</t>
   </si>
   <si>
+    <t>97313-1</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>97314-9</t>
   </si>
   <si>
@@ -1682,6 +1988,12 @@
   </si>
   <si>
     <t>Haemophilus influenzae DNA [Presence] in Synovial fluid by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>97646-4</t>
+  </si>
+  <si>
+    <t>Lassa virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>97920-3</t>
@@ -1992,7 +2304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B270"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4151,15 +4463,431 @@
         <v>564</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B272" t="s" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B273" t="s" s="2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B274" t="s" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B275" t="s" s="2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B276" t="s" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B277" t="s" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B279" t="s" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B287" t="s" s="2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B288" t="s" s="2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B291" t="s" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B292" t="s" s="2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B293" t="s" s="2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B294" t="s" s="2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B296" t="s" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B297" t="s" s="2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B298" t="s" s="2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B299" t="s" s="2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B300" t="s" s="2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B301" t="s" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B302" t="s" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B303" t="s" s="2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B304" t="s" s="2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B305" t="s" s="2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B306" t="s" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B307" t="s" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B308" t="s" s="2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B309" t="s" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B310" t="s" s="2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B311" t="s" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B312" t="s" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B313" t="s" s="2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B314" t="s" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B315" t="s" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B316" t="s" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B319" t="s" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B320" t="s" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -4189,26 +4917,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>567</v>
+        <v>671</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>568</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>564</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>565</v>
+        <v>669</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>569</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="756">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,12 +280,36 @@
     <t>European tick borne encephalitis virus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
   </si>
   <si>
+    <t>104407-2</t>
+  </si>
+  <si>
+    <t>Hantavirus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
+  </si>
+  <si>
+    <t>104454-4</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
+  </si>
+  <si>
     <t>104476-7</t>
   </si>
   <si>
     <t>Zika virus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
   </si>
   <si>
+    <t>105065-7</t>
+  </si>
+  <si>
+    <t>Shigella species+EIEC invasion plasmid antigen H ipaH gene [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>105640-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>11259-9</t>
   </si>
   <si>
@@ -358,6 +382,12 @@
     <t>Salmonella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>17735-2</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>20458-6</t>
   </si>
   <si>
@@ -424,6 +454,12 @@
     <t>Measles virus IgG Ab [Titer] in Serum</t>
   </si>
   <si>
+    <t>22826-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A identified in Specimen by Bioassay</t>
+  </si>
+  <si>
     <t>22866-8</t>
   </si>
   <si>
@@ -448,6 +484,12 @@
     <t>Francisella tularensis DNA [Presence] in Tissue by NAA with probe detection</t>
   </si>
   <si>
+    <t>23499-7</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis [Presence] in Tissue by Light microscopy</t>
+  </si>
+  <si>
     <t>23838-6</t>
   </si>
   <si>
@@ -496,6 +538,18 @@
     <t>Dengue virus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>26620-5</t>
+  </si>
+  <si>
+    <t>Hantavirus IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>29566-7</t>
+  </si>
+  <si>
+    <t>West Nile virus IgG Ab [Presence] in Serum by Immunoassay</t>
+  </si>
+  <si>
     <t>29610-3</t>
   </si>
   <si>
@@ -520,6 +574,12 @@
     <t>Rubella virus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>31703-2</t>
+  </si>
+  <si>
+    <t>West Nile virus IgM Ab [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
     <t>31726-3</t>
   </si>
   <si>
@@ -634,6 +694,12 @@
     <t>14-3-3 Ag [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
+    <t>32131-5</t>
+  </si>
+  <si>
+    <t>Hantavirus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
@@ -682,12 +748,36 @@
     <t>Clostridium botulinum toxin [Presence] in Specimen by Mouse bioassay</t>
   </si>
   <si>
+    <t>34460-6</t>
+  </si>
+  <si>
+    <t>West Nile virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>34461-4</t>
+  </si>
+  <si>
+    <t>West Nile virus RNA [Presence] in Cerebral spinal fluid by NAA with probe detection</t>
+  </si>
+  <si>
     <t>34487-9</t>
   </si>
   <si>
     <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>38270-5</t>
+  </si>
+  <si>
+    <t>Influenza virus A H7 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>38272-1</t>
+  </si>
+  <si>
+    <t>Influenza virus A H5 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>38275-4</t>
   </si>
   <si>
@@ -712,6 +802,12 @@
     <t>Hepatitis B virus e Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>39025-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>40669-4</t>
   </si>
   <si>
@@ -724,6 +820,12 @@
     <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>41216-3</t>
+  </si>
+  <si>
+    <t>Yellow fever virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>41447-4</t>
   </si>
   <si>
@@ -910,6 +1012,12 @@
     <t>Influenza virus A H3 RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49528-3</t>
+  </si>
+  <si>
+    <t>Influenza virus A H9 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>49612-5</t>
   </si>
   <si>
@@ -982,6 +1090,12 @@
     <t>Plasmodium sp Ag [Presence] in Blood</t>
   </si>
   <si>
+    <t>50697-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A Ag [Identifier] in Isolate</t>
+  </si>
+  <si>
     <t>51578-3</t>
   </si>
   <si>
@@ -994,6 +1108,12 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>51646-8</t>
+  </si>
+  <si>
+    <t>Rabies virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>51664-1</t>
   </si>
   <si>
@@ -1150,6 +1270,12 @@
     <t>Legionella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>59423-4</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin type RNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>60255-7</t>
   </si>
   <si>
@@ -1180,6 +1306,12 @@
     <t>SARS coronavirus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
+    <t>60546-9</t>
+  </si>
+  <si>
+    <t>Polio virus identified [Type] in Isolate by Organism specific culture</t>
+  </si>
+  <si>
     <t>61366-1</t>
   </si>
   <si>
@@ -1204,6 +1336,12 @@
     <t>Vibrio cholerae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>62469-2</t>
+  </si>
+  <si>
+    <t>HIV 1 RNA [Units/volume] (viral load) in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
     <t>6329-7</t>
   </si>
   <si>
@@ -1252,6 +1390,18 @@
     <t>Neisseria meningitidis Ag [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
+    <t>6532-6</t>
+  </si>
+  <si>
+    <t>Rabies virus Ag [Presence] in Specimen by Immunofluorescence</t>
+  </si>
+  <si>
+    <t>6539-1</t>
+  </si>
+  <si>
+    <t>Rabies virus identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>6548-2</t>
   </si>
   <si>
@@ -1294,6 +1444,12 @@
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>6604-3</t>
+  </si>
+  <si>
+    <t>Influenza virus identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>6609-2</t>
   </si>
   <si>
@@ -1390,18 +1546,36 @@
     <t>Plasmodium sp Ag [Identifier] in Blood by Rapid immunoassay</t>
   </si>
   <si>
+    <t>70858-6</t>
+  </si>
+  <si>
+    <t>Rabies virus neutralizing antibody [Presence] in Serum by Neutralization test</t>
+  </si>
+  <si>
     <t>71429-5</t>
   </si>
   <si>
     <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>71782-7</t>
+  </si>
+  <si>
+    <t>Yellow fever virus IgM Ab [Presence] in Cerebral spinal fluid by Immunoassay</t>
+  </si>
+  <si>
     <t>72307-2</t>
   </si>
   <si>
     <t>Brucella sp IgG Ab [Titer] in Serum --2nd specimen</t>
   </si>
   <si>
+    <t>73907-8</t>
+  </si>
+  <si>
+    <t>Polio virus identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>74037-3</t>
   </si>
   <si>
@@ -1468,6 +1642,12 @@
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>77955-3</t>
+  </si>
+  <si>
+    <t>Yellow fever virus IgM Ab [Presence] in Serum by Immunofluorescence</t>
+  </si>
+  <si>
     <t>7889-9</t>
   </si>
   <si>
@@ -1480,6 +1660,12 @@
     <t>Francisella tularensis IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>7899-8</t>
+  </si>
+  <si>
+    <t>Hantavirus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
     <t>7904-6</t>
   </si>
   <si>
@@ -1534,6 +1720,12 @@
     <t>Neisseria gonorrhoeae [Presence] in Anorectal by Organism specific culture</t>
   </si>
   <si>
+    <t>8043-2</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>80680-2</t>
   </si>
   <si>
@@ -1618,6 +1810,12 @@
     <t>Ebola virus RNA [Presence] in Blood by NAA with probe detection</t>
   </si>
   <si>
+    <t>86520-4</t>
+  </si>
+  <si>
+    <t>Hantavirus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>86574-1</t>
   </si>
   <si>
@@ -1648,6 +1846,12 @@
     <t>Zika virus IgM Ab [Presence] in Specimen by Immunoassay</t>
   </si>
   <si>
+    <t>87985-8</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis DNA [Presence] in Tissue by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88192-0</t>
   </si>
   <si>
@@ -1726,6 +1930,12 @@
     <t>Corynebacterium sp identified in Isolate by Organism specific culture</t>
   </si>
   <si>
+    <t>90459-9</t>
+  </si>
+  <si>
+    <t>Yellow fever virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>91071-1</t>
   </si>
   <si>
@@ -1870,6 +2080,18 @@
     <t>Chikungunya virus IgG Ab [Presence] in Serum or Plasma</t>
   </si>
   <si>
+    <t>94184-9</t>
+  </si>
+  <si>
+    <t>Yellow fever virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94289-6</t>
+  </si>
+  <si>
+    <t>West Nile virus neutralizing antibody [Presence] in Specimen by Neutralization test</t>
+  </si>
+  <si>
     <t>94309-2</t>
   </si>
   <si>
@@ -1936,6 +2158,12 @@
     <t>Chikungunya virus IgM Ab [Presence] in Specimen by Immunoassay</t>
   </si>
   <si>
+    <t>95690-4</t>
+  </si>
+  <si>
+    <t>Yellow fever virus IgM Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
     <t>96509-5</t>
   </si>
   <si>
@@ -2029,10 +2257,28 @@
     <t>http://loinc.org</t>
   </si>
   <si>
+    <t>19030005</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus (organism)</t>
+  </si>
+  <si>
+    <t>36115006</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus type 2 (organism)</t>
+  </si>
+  <si>
     <t>72904005</t>
   </si>
   <si>
     <t>Treponema pallidum (organism)</t>
+  </si>
+  <si>
+    <t>89293008</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus type I (organism)</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -2304,7 +2550,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4879,15 +5125,319 @@
         <v>668</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B327" t="s" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B328" t="s" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B329" t="s" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B330" t="s" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B331" t="s" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B332" t="s" s="2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="B333" t="s" s="2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B334" t="s" s="2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B335" t="s" s="2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B336" t="s" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B344" t="s" s="2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +5447,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4917,26 +5467,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>672</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>668</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>673</v>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="768">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -190,24 +190,6 @@
     <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
-    <t>101552-8</t>
-  </si>
-  <si>
-    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101554-4</t>
-  </si>
-  <si>
-    <t>Campylobacter jejuni DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101555-1</t>
-  </si>
-  <si>
-    <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
     <t>101662-5</t>
   </si>
   <si>
@@ -316,6 +298,12 @@
     <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
+    <t>11469-4</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>13954-3</t>
   </si>
   <si>
@@ -412,6 +400,12 @@
     <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
   </si>
   <si>
+    <t>21262-1</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin [Presence] in Stool by Immunoassay</t>
+  </si>
+  <si>
     <t>21363-7</t>
   </si>
   <si>
@@ -472,6 +466,12 @@
     <t>Bacillus anthracis Ag [Presence] in Specimen by Immunofluorescence</t>
   </si>
   <si>
+    <t>23024-3</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>23126-6</t>
   </si>
   <si>
@@ -568,6 +568,18 @@
     <t>Hepatitis B virus core IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>31314-8</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31315-5</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>31616-6</t>
   </si>
   <si>
@@ -1000,6 +1012,12 @@
     <t>Measles virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49124-1</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii identified in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>49521-8</t>
   </si>
   <si>
@@ -1024,12 +1042,6 @@
     <t>Salmonella sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>49614-1</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>49671-1</t>
   </si>
   <si>
@@ -1042,12 +1054,6 @@
     <t>Streptococcus pneumoniae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>4992-4</t>
-  </si>
-  <si>
-    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
     <t>5007-0</t>
   </si>
   <si>
@@ -1120,6 +1126,18 @@
     <t>Chikungunya virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>51939-7</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin 2 [Presence] in Stool by Immunoassay</t>
+  </si>
+  <si>
+    <t>51940-5</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin 1 [Presence] in Stool by Immunoassay</t>
+  </si>
+  <si>
     <t>5195-3</t>
   </si>
   <si>
@@ -1192,6 +1210,12 @@
     <t>Vibrio cholerae toxin ctx gene [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>53946-0</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin identified in Specimen</t>
+  </si>
+  <si>
     <t>54091-4</t>
   </si>
   <si>
@@ -1288,6 +1312,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>60261-5</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
     <t>60274-8</t>
   </si>
   <si>
@@ -1318,12 +1348,6 @@
     <t>Haemophilus influenzae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>61368-7</t>
-  </si>
-  <si>
-    <t>Campylobacter jejuni DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>61369-5</t>
   </si>
   <si>
@@ -1342,24 +1366,6 @@
     <t>HIV 1 RNA [Units/volume] (viral load) in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
-    <t>6329-7</t>
-  </si>
-  <si>
-    <t>Campylobacter coli rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
-    <t>6333-9</t>
-  </si>
-  <si>
-    <t>Campylobacter jejuni rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
-    <t>6334-7</t>
-  </si>
-  <si>
-    <t>Campylobacter lari rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
     <t>6349-5</t>
   </si>
   <si>
@@ -1552,12 +1558,6 @@
     <t>Rabies virus neutralizing antibody [Presence] in Serum by Neutralization test</t>
   </si>
   <si>
-    <t>71429-5</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
     <t>71782-7</t>
   </si>
   <si>
@@ -1684,6 +1684,18 @@
     <t>Zika virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>79386-9</t>
+  </si>
+  <si>
+    <t>Escherichia coli Stx1 toxin stx1 gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>79387-7</t>
+  </si>
+  <si>
+    <t>Escherichia coli Stx2 toxin stx2 gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>7964-0</t>
   </si>
   <si>
@@ -1792,12 +1804,6 @@
     <t>Zika virus RNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
-    <t>85827-4</t>
-  </si>
-  <si>
-    <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
-  </si>
-  <si>
     <t>86515-4</t>
   </si>
   <si>
@@ -1852,6 +1858,18 @@
     <t>Trichinella spiralis DNA [Presence] in Tissue by NAA with probe detection</t>
   </si>
   <si>
+    <t>88177-1</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>88178-9</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii DNA [Presence] in Tissue by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88192-0</t>
   </si>
   <si>
@@ -2188,6 +2206,18 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Oropharyngeal wash by NAA with probe detection</t>
   </si>
   <si>
+    <t>9709-7</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>9711-3</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgM Ab [Titer] in Serum</t>
+  </si>
+  <si>
     <t>97313-1</t>
   </si>
   <si>
@@ -2273,6 +2303,12 @@
   </si>
   <si>
     <t>Treponema pallidum (organism)</t>
+  </si>
+  <si>
+    <t>734351004</t>
+  </si>
+  <si>
+    <t>Carbapenemase-producing Enterobacteriaceae (organism)</t>
   </si>
   <si>
     <t>89293008</t>
@@ -2550,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5429,15 +5465,55 @@
         <v>744</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B361" t="s" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -5447,7 +5523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5467,50 +5543,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>748</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>752</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>754</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>744</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
         <v>755</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="796">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -184,12 +184,6 @@
     <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>101427-3</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
     <t>101662-5</t>
   </si>
   <si>
@@ -292,6 +286,18 @@
     <t>Campylobacter sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>106554-9</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>107242-0</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus Ab [Interpretation] in Serum or Plasma</t>
+  </si>
+  <si>
     <t>11259-9</t>
   </si>
   <si>
@@ -304,6 +310,30 @@
     <t>Bacillus anthracis [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>11477-7</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Sputum by Acid fast stain</t>
+  </si>
+  <si>
+    <t>11479-3</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Tissue by Acid fast stain</t>
+  </si>
+  <si>
+    <t>11480-1</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Urine by Acid fast stain</t>
+  </si>
+  <si>
+    <t>11545-1</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Specimen by Acid fast stain</t>
+  </si>
+  <si>
     <t>13954-3</t>
   </si>
   <si>
@@ -496,6 +526,12 @@
     <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
   </si>
   <si>
+    <t>24002-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Bronchial specimen by Acid fast stain</t>
+  </si>
+  <si>
     <t>24102-6</t>
   </si>
   <si>
@@ -712,6 +748,12 @@
     <t>Hantavirus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>32188-5</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Acid fast stain</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
@@ -802,6 +844,12 @@
     <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>38379-4</t>
+  </si>
+  <si>
+    <t>Mycobacterium tuberculosis complex DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>38382-8</t>
   </si>
   <si>
@@ -976,12 +1024,6 @@
     <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
-    <t>46455-2</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>46732-4</t>
   </si>
   <si>
@@ -1162,6 +1204,12 @@
     <t>Rubella virus IgG Ab avidity [Ratio] in Serum by Immunoassay</t>
   </si>
   <si>
+    <t>534-8</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Cerebral spinal fluid by Organism specific culture</t>
+  </si>
+  <si>
     <t>53607-8</t>
   </si>
   <si>
@@ -1216,12 +1264,36 @@
     <t>Escherichia coli shiga-like toxin identified in Specimen</t>
   </si>
   <si>
+    <t>539-7</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>540-5</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Tissue by Organism specific culture</t>
+  </si>
+  <si>
     <t>54091-4</t>
   </si>
   <si>
     <t>Rubella virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>541-3</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Urine by Organism specific culture</t>
+  </si>
+  <si>
+    <t>543-9</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>552-0</t>
   </si>
   <si>
@@ -1780,6 +1852,12 @@
     <t>Zika virus IgM Ab [Presence] in Serum by Immunofluorescence</t>
   </si>
   <si>
+    <t>85362-2</t>
+  </si>
+  <si>
+    <t>Mycobacterium tuberculosis complex DNA [Presence] in Sputum or Bronchial by NAA with probe detection</t>
+  </si>
+  <si>
     <t>85477-8</t>
   </si>
   <si>
@@ -2258,6 +2336,12 @@
   </si>
   <si>
     <t>Tick-borne encephalitis virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>9823-6</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Bronchial specimen by Organism specific culture</t>
   </si>
   <si>
     <t>99090-3</t>
@@ -2586,7 +2670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5505,15 +5589,127 @@
         <v>754</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -5543,58 +5739,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>758</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>760</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>762</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>764</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>754</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>767</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="798">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2012,6 +2012,12 @@
   </si>
   <si>
     <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>88875-0</t>
+  </si>
+  <si>
+    <t>Measles virus genotype A vaccine strain N gene [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>89596-1</t>
@@ -2670,7 +2676,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5701,15 +5707,23 @@
         <v>782</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>784</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -5739,58 +5753,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="800">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -866,6 +866,12 @@
   </si>
   <si>
     <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
+  </si>
+  <si>
+    <t>40614-0</t>
+  </si>
+  <si>
+    <t>Brucella sp Ab [Presence] in Serum by Agglutination</t>
   </si>
   <si>
     <t>40669-4</t>
@@ -2676,7 +2682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5715,15 +5721,23 @@
         <v>784</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>786</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -5753,58 +5767,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="802">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>77685-6</t>
+  </si>
+  <si>
+    <t>HIV 1 and 2 IgG Ab [Identifier] in Serum or Plasma by Immunoblot</t>
   </si>
   <si>
     <t>77955-3</t>
@@ -2682,7 +2688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5729,15 +5735,23 @@
         <v>786</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>788</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -5767,58 +5781,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="816">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1840,6 +1841,12 @@
     <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>81868-2</t>
+  </si>
+  <si>
+    <t>PRNP gene targeted mutation analysis in Blood or Tissue by Molecular genetics method</t>
+  </si>
+  <si>
     <t>82184-3</t>
   </si>
   <si>
@@ -2420,6 +2427,42 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>EP-100100-7</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder</t>
+  </si>
+  <si>
+    <t>EP-100200-5</t>
+  </si>
+  <si>
+    <t>EP-100300-3</t>
+  </si>
+  <si>
+    <t>EP-100400-1</t>
+  </si>
+  <si>
+    <t>EP-100500-8</t>
+  </si>
+  <si>
+    <t>EP-100600-6</t>
+  </si>
+  <si>
+    <t>EP-100700-4</t>
+  </si>
+  <si>
+    <t>EP-100800-2</t>
+  </si>
+  <si>
+    <t>EP-100900-0</t>
+  </si>
+  <si>
+    <t>EP-101000-8</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.756.5.30.1.129.1.5.1</t>
   </si>
 </sst>
 </file>
@@ -2688,7 +2731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5743,15 +5786,23 @@
         <v>788</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>790</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -5781,58 +5832,179 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="825">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2432,34 +2432,61 @@
     <t>EP-100100-7</t>
   </si>
   <si>
-    <t>FOPH emerging pathogen placeholder</t>
+    <t>FOPH emerging pathogen placeholder 1</t>
   </si>
   <si>
     <t>EP-100200-5</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 2</t>
+  </si>
+  <si>
     <t>EP-100300-3</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 3</t>
+  </si>
+  <si>
     <t>EP-100400-1</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 4</t>
+  </si>
+  <si>
     <t>EP-100500-8</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 5</t>
+  </si>
+  <si>
     <t>EP-100600-6</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 6</t>
+  </si>
+  <si>
     <t>EP-100700-4</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 7</t>
+  </si>
+  <si>
     <t>EP-100800-2</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 8</t>
+  </si>
+  <si>
     <t>EP-100900-0</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 9</t>
+  </si>
+  <si>
     <t>EP-101000-8</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 10</t>
   </si>
   <si>
     <t>urn:oid:2.16.756.5.30.1.129.1.5.1</t>
@@ -5924,71 +5951,71 @@
         <v>806</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>805</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>805</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>805</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>805</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>805</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12">
@@ -6004,7 +6031,7 @@
         <v>791</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>815</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
